--- a/data/beds-vents-1108.xlsx
+++ b/data/beds-vents-1108.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="633">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="636">
   <si>
     <t>DATE</t>
   </si>
@@ -1913,6 +1913,15 @@
   </si>
   <si>
     <t>2021-11-04</t>
+  </si>
+  <si>
+    <t>2021-11-05</t>
+  </si>
+  <si>
+    <t>2021-11-06</t>
+  </si>
+  <si>
+    <t>2021-11-07</t>
   </si>
 </sst>
 </file>
@@ -2270,7 +2279,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O619"/>
+  <dimension ref="A1:O622"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -30541,6 +30550,147 @@
         <v>73.48999999999999</v>
       </c>
     </row>
+    <row r="620" spans="1:15">
+      <c r="A620" t="s">
+        <v>633</v>
+      </c>
+      <c r="B620">
+        <v>2244</v>
+      </c>
+      <c r="C620">
+        <v>354</v>
+      </c>
+      <c r="D620">
+        <v>1393</v>
+      </c>
+      <c r="E620">
+        <v>497</v>
+      </c>
+      <c r="F620">
+        <v>2766</v>
+      </c>
+      <c r="G620">
+        <v>170</v>
+      </c>
+      <c r="H620">
+        <v>554</v>
+      </c>
+      <c r="I620">
+        <v>2042</v>
+      </c>
+      <c r="J620">
+        <v>15.78</v>
+      </c>
+      <c r="K620">
+        <v>62.08</v>
+      </c>
+      <c r="L620">
+        <v>22.15</v>
+      </c>
+      <c r="M620">
+        <v>6.15</v>
+      </c>
+      <c r="N620">
+        <v>20.03</v>
+      </c>
+      <c r="O620">
+        <v>73.83</v>
+      </c>
+    </row>
+    <row r="621" spans="1:15">
+      <c r="A621" t="s">
+        <v>634</v>
+      </c>
+      <c r="B621">
+        <v>2246</v>
+      </c>
+      <c r="C621">
+        <v>335</v>
+      </c>
+      <c r="D621">
+        <v>1385</v>
+      </c>
+      <c r="E621">
+        <v>526</v>
+      </c>
+      <c r="F621">
+        <v>2765</v>
+      </c>
+      <c r="G621">
+        <v>164</v>
+      </c>
+      <c r="H621">
+        <v>564</v>
+      </c>
+      <c r="I621">
+        <v>2037</v>
+      </c>
+      <c r="J621">
+        <v>14.92</v>
+      </c>
+      <c r="K621">
+        <v>61.67</v>
+      </c>
+      <c r="L621">
+        <v>23.42</v>
+      </c>
+      <c r="M621">
+        <v>5.93</v>
+      </c>
+      <c r="N621">
+        <v>20.4</v>
+      </c>
+      <c r="O621">
+        <v>73.67</v>
+      </c>
+    </row>
+    <row r="622" spans="1:15">
+      <c r="A622" t="s">
+        <v>635</v>
+      </c>
+      <c r="B622">
+        <v>2234</v>
+      </c>
+      <c r="C622">
+        <v>314</v>
+      </c>
+      <c r="D622">
+        <v>1224</v>
+      </c>
+      <c r="E622">
+        <v>696</v>
+      </c>
+      <c r="F622">
+        <v>2770</v>
+      </c>
+      <c r="G622">
+        <v>154</v>
+      </c>
+      <c r="H622">
+        <v>535</v>
+      </c>
+      <c r="I622">
+        <v>2081</v>
+      </c>
+      <c r="J622">
+        <v>14.06</v>
+      </c>
+      <c r="K622">
+        <v>54.79</v>
+      </c>
+      <c r="L622">
+        <v>31.15</v>
+      </c>
+      <c r="M622">
+        <v>5.56</v>
+      </c>
+      <c r="N622">
+        <v>19.31</v>
+      </c>
+      <c r="O622">
+        <v>75.13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
